--- a/biology/Botanique/Lawrence_Alexander_Sidney_Johnson/Lawrence_Alexander_Sidney_Johnson.xlsx
+++ b/biology/Botanique/Lawrence_Alexander_Sidney_Johnson/Lawrence_Alexander_Sidney_Johnson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lawrence Alexander Sidney Johnson, connu aussi sous le nom de Lawrie Johnson, est un botaniste australien, né le 26 juin 1925 à Cheltenham dans la banlieue de Sydney et mort le 1er août 1997 à St Leonards (en), également à proximité de Sydney.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il travaille pour les Jardins botaniques royaux de Sydney durant toute sa carrière professionnelle, d’abord comme botaniste de 1948 à 1972, puis comme directeur de 1972 à 1985 enfin comme chercheur associé honoraire de 1986 à 1997. Seul ou avec des collaborateurs, il reconnaît et décrit quatre nouvelles familles de plantes vasculaires, trente-trois nouveaux genres et deux cent quatre-vingt-six nouvelles espèces (y compris dans ses publications posthumes). Il reclasse également 395 autres espèces.
 La famille des Rhynchocalycaceae, qu’il décrit avec Barbara G. Briggs (1934-), est acceptée par l’Angiosperm Phylogeny Group, mais les familles des Hopkinsiaceae et Lyginiaceae qu'ils proposent en 2000, constituées par des espèces précédemment classées dans les Anarthriaceae, sont rejetées.
